--- a/Docs/Urenverantwoording.xlsx
+++ b/Docs/Urenverantwoording.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\School2\Persistent\02\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\2021-2022\Kwartiel2.1\Project Persistent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17065EF-DE74-4D20-8A8B-F5DCC23F93A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00977548-FD5B-4DAD-BAAF-038AD3CB8CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -1034,7 +1034,7 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1330,22 +1330,22 @@
                   <c:v>356.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>356.25</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>356.25</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>356.25</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>356.25</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>356.25</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>356.25</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="G5" s="3">
         <f>'Week (3)'!$H$41</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H5" s="3">
         <f>'Week (4)'!$H$41</f>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>13.75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="G7" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="1"/>
@@ -4005,7 +4005,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22">
         <f>SUM(G7:H7)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22">
@@ -4034,27 +4034,27 @@
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:L9" si="2">F9-G7</f>
-        <v>356.25</v>
+        <v>354</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="2"/>
-        <v>356.25</v>
+        <v>354</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="2"/>
-        <v>356.25</v>
+        <v>354</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="2"/>
-        <v>356.25</v>
+        <v>354</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" si="2"/>
-        <v>356.25</v>
+        <v>354</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" si="2"/>
-        <v>356.25</v>
+        <v>354</v>
       </c>
       <c r="M9" s="11"/>
     </row>
@@ -4125,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5063,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -6001,8 +6001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6803,14 +6803,16 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="C35" s="10">
+        <v>2.25</v>
+      </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f>SUM(B35:G35)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -6877,7 +6879,7 @@
       </c>
       <c r="C41" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D41" s="12">
         <f t="shared" si="7"/>
@@ -6897,7 +6899,7 @@
       </c>
       <c r="H41" s="12">
         <f>SUM(B41:G41)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -10577,26 +10579,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -10839,26 +10821,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10877,4 +10860,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>